--- a/norlandbiotech_data.xlsx
+++ b/norlandbiotech_data.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>food colorant, cosmetic additive, health food</t>
+          <t>food colorant, cosmetic additive, dietary supplement, health food</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>dietary supplement, health food</t>
+          <t>food colorant, dietary supplement, health food, antioxidant, minerals</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -553,7 +553,11 @@
           <t>{'neg': 0.017, 'neu': 0.8, 'pos': 0.183, 'compound': 0.9618}</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>food colorant, health food, algae</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>able, health, humans, without, improve, increase, indirectly, interesting, iron, low</t>
@@ -599,7 +603,11 @@
           <t>{'neg': 0.0, 'neu': 0.915, 'pos': 0.085, 'compound': 0.9118}</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>food colorant, health food, algae, minerals</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>11, range, protein, precious, other, organism, nutritive, nutrients, numerous, needed</t>
@@ -624,7 +632,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>dietary supplement, health food</t>
+          <t>food colorant, dietary supplement, health food, antioxidant</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -649,7 +657,11 @@
           <t>{'neg': 0.082, 'neu': 0.739, 'pos': 0.179, 'compound': 0.91}</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>antioxidant</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>ability, it, low, which, much, not, organism, powder, powerful, process</t>
@@ -695,7 +707,11 @@
           <t>{'neg': 0.047, 'neu': 0.779, 'pos': 0.174, 'compound': 0.9381}</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>food colorant, health food</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>absorbed, hypoallergenic, lysine, means, model, most, or, other, people, peptide</t>
